--- a/LCOM_PyPSA_results.xlsx
+++ b/LCOM_PyPSA_results.xlsx
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -470,12 +470,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -574,6 +591,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -7760,7 +7780,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="inlineStr">
+      <c r="A4" s="50" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -7896,7 +7916,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="46" t="n"/>
+      <c r="A7" s="48" t="n"/>
       <c r="B7" s="46" t="inlineStr">
         <is>
           <t>methanol_synthesis</t>
@@ -7968,7 +7988,6 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -7981,7 +8000,6 @@
       <c r="M8" t="n">
         <v>-89035895.78829734</v>
       </c>
-      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="46" t="inlineStr">
@@ -8080,7 +8098,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="46" t="n"/>
+      <c r="A11" s="48" t="n"/>
       <c r="B11" s="46" t="inlineStr">
         <is>
           <t>methanol</t>

--- a/LCOM_PyPSA_results.xlsx
+++ b/LCOM_PyPSA_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/PyPSA-China-Green-LCOX-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55EC818-14B5-BD44-B822-758CC5E33B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C6A50-5A2D-A945-BA55-95CC9B0E1E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="13640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,6 +844,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -866,9 +869,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1206,20 +1206,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" t="s">
@@ -1413,12 +1413,6 @@
       <c r="E12" s="19">
         <v>970.38071155439695</v>
       </c>
-      <c r="F12">
-        <v>41.640099999999997</v>
-      </c>
-      <c r="G12">
-        <v>109.8633</v>
-      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -1433,12 +1427,6 @@
       <c r="E13" s="19">
         <v>808.65059296199718</v>
       </c>
-      <c r="F13">
-        <v>41.640099999999997</v>
-      </c>
-      <c r="G13">
-        <v>109.8633</v>
-      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
@@ -1453,12 +1441,6 @@
       <c r="E14" s="19">
         <v>693.12907968171191</v>
       </c>
-      <c r="F14">
-        <v>41.640099999999997</v>
-      </c>
-      <c r="G14">
-        <v>109.8633</v>
-      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
@@ -1473,12 +1455,6 @@
       <c r="E15" s="19">
         <v>606.48794472149802</v>
       </c>
-      <c r="F15">
-        <v>41.640099999999997</v>
-      </c>
-      <c r="G15">
-        <v>109.8633</v>
-      </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
     </row>
@@ -1495,12 +1471,6 @@
       <c r="E16" s="19">
         <v>854.64259543671108</v>
       </c>
-      <c r="F16">
-        <v>45.3733</v>
-      </c>
-      <c r="G16">
-        <v>122.9395</v>
-      </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
     </row>
@@ -1517,12 +1487,6 @@
       <c r="E17" s="19">
         <v>712.20216286392611</v>
       </c>
-      <c r="F17">
-        <v>45.3733</v>
-      </c>
-      <c r="G17">
-        <v>122.9395</v>
-      </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
@@ -1539,12 +1503,6 @@
       <c r="E18" s="19">
         <v>610.45899674050804</v>
       </c>
-      <c r="F18">
-        <v>45.3733</v>
-      </c>
-      <c r="G18">
-        <v>122.9395</v>
-      </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
     </row>
@@ -1561,12 +1519,6 @@
       <c r="E19" s="19">
         <v>534.15162214794464</v>
       </c>
-      <c r="F19">
-        <v>45.3733</v>
-      </c>
-      <c r="G19">
-        <v>122.9395</v>
-      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
@@ -2406,13 +2358,13 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
@@ -4487,7 +4439,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -4531,7 +4483,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="18" t="s">
         <v>48</v>
       </c>
@@ -4573,7 +4525,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -4617,7 +4569,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="18" t="s">
         <v>87</v>
       </c>
@@ -4659,7 +4611,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="18" t="s">
         <v>88</v>
       </c>
@@ -4701,7 +4653,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="18" t="s">
         <v>89</v>
       </c>
@@ -4825,7 +4777,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -4869,7 +4821,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="18" t="s">
         <v>88</v>
       </c>
@@ -5007,7 +4959,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -5051,7 +5003,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="29"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="18" t="s">
         <v>48</v>
       </c>
@@ -5093,7 +5045,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -5137,7 +5089,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="18" t="s">
         <v>87</v>
       </c>
@@ -5179,7 +5131,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="18" t="s">
         <v>88</v>
       </c>
@@ -5221,7 +5173,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="18" t="s">
         <v>89</v>
       </c>
@@ -5345,7 +5297,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -5389,7 +5341,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="18" t="s">
         <v>88</v>
       </c>
@@ -5506,19 +5458,19 @@
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="20" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="21"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
@@ -5548,15 +5500,15 @@
       <c r="I4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
       <c r="Q4" s="4" t="s">
         <v>47</v>
       </c>
@@ -5996,19 +5948,19 @@
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="20" t="s">
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="21"/>
+      <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
@@ -6038,15 +5990,15 @@
       <c r="I13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="25"/>
       <c r="Q13" s="4" t="s">
         <v>47</v>
       </c>
@@ -6582,7 +6534,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6626,7 +6578,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="5" t="s">
         <v>48</v>
       </c>
@@ -6668,7 +6620,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -6712,7 +6664,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="5" t="s">
         <v>87</v>
       </c>
@@ -6751,7 +6703,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5" t="s">
         <v>88</v>
       </c>
@@ -6790,7 +6742,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="5" t="s">
         <v>89</v>
       </c>
@@ -6914,7 +6866,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -6958,7 +6910,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="5" t="s">
         <v>88</v>
       </c>
@@ -7096,7 +7048,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -7140,7 +7092,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="18" t="s">
         <v>48</v>
       </c>
@@ -7182,7 +7134,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -7226,7 +7178,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="18" t="s">
         <v>87</v>
       </c>
@@ -7268,7 +7220,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="18" t="s">
         <v>88</v>
       </c>
@@ -7310,7 +7262,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="18" t="s">
         <v>89</v>
       </c>
@@ -7434,7 +7386,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -7478,7 +7430,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="18" t="s">
         <v>88</v>
       </c>
@@ -7616,7 +7568,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -7660,7 +7612,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="18" t="s">
         <v>48</v>
       </c>
@@ -7702,7 +7654,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -7746,7 +7698,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="18" t="s">
         <v>87</v>
       </c>
@@ -7788,7 +7740,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="18" t="s">
         <v>88</v>
       </c>
@@ -7830,7 +7782,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="18" t="s">
         <v>89</v>
       </c>
@@ -7954,7 +7906,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -7998,7 +7950,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="18" t="s">
         <v>88</v>
       </c>
@@ -8136,7 +8088,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -8180,7 +8132,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="18" t="s">
         <v>48</v>
       </c>
@@ -8222,7 +8174,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -8266,7 +8218,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="18" t="s">
         <v>87</v>
       </c>
@@ -8308,7 +8260,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="18" t="s">
         <v>88</v>
       </c>
@@ -8350,7 +8302,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="18" t="s">
         <v>89</v>
       </c>
@@ -8474,7 +8426,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -8518,7 +8470,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="18" t="s">
         <v>88</v>
       </c>
@@ -8656,7 +8608,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -8700,7 +8652,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="18" t="s">
         <v>48</v>
       </c>
@@ -8742,7 +8694,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -8786,7 +8738,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="18" t="s">
         <v>87</v>
       </c>
@@ -8828,7 +8780,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="18" t="s">
         <v>88</v>
       </c>
@@ -8870,7 +8822,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="18" t="s">
         <v>89</v>
       </c>
@@ -8994,7 +8946,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -9038,7 +8990,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="18" t="s">
         <v>88</v>
       </c>
@@ -9176,7 +9128,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -9220,7 +9172,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="18" t="s">
         <v>48</v>
       </c>
@@ -9262,7 +9214,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -9306,7 +9258,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="18" t="s">
         <v>87</v>
       </c>
@@ -9348,7 +9300,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="18" t="s">
         <v>88</v>
       </c>
@@ -9390,7 +9342,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="18" t="s">
         <v>89</v>
       </c>
@@ -9514,7 +9466,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -9558,7 +9510,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="18" t="s">
         <v>88</v>
       </c>
@@ -9696,7 +9648,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -9740,7 +9692,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="18" t="s">
         <v>48</v>
       </c>
@@ -9782,7 +9734,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -9826,7 +9778,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="18" t="s">
         <v>87</v>
       </c>
@@ -9868,7 +9820,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="18" t="s">
         <v>88</v>
       </c>
@@ -9910,7 +9862,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="18" t="s">
         <v>89</v>
       </c>
@@ -10034,7 +9986,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -10078,7 +10030,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="18" t="s">
         <v>88</v>
       </c>

--- a/LCOM_PyPSA_results.xlsx
+++ b/LCOM_PyPSA_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/PyPSA-China-Green-LCOX-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C6A50-5A2D-A945-BA55-95CC9B0E1E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1851FDA0-F6F8-8D4A-A825-2049DC9447A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="13640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="172">
   <si>
     <t>Province</t>
   </si>
@@ -339,9 +339,6 @@
     <t>LCOA</t>
   </si>
   <si>
-    <t>LCOX China</t>
-  </si>
-  <si>
     <t>HB-4000</t>
   </si>
   <si>
@@ -363,9 +360,6 @@
     <t>H2-low</t>
   </si>
   <si>
-    <t>LCOX-site-1</t>
-  </si>
-  <si>
     <t>FLH-5000</t>
   </si>
   <si>
@@ -378,12 +372,6 @@
     <t>FLH-8000</t>
   </si>
   <si>
-    <t>LCOX-site-2</t>
-  </si>
-  <si>
-    <t>LCOX-hydro</t>
-  </si>
-  <si>
     <t>InMo_BT</t>
   </si>
   <si>
@@ -402,9 +390,6 @@
     <t>GW</t>
   </si>
   <si>
-    <t>LCOX-site-3</t>
-  </si>
-  <si>
     <t>LCOM-site-1</t>
   </si>
   <si>
@@ -414,9 +399,6 @@
     <t>FLH-4000</t>
   </si>
   <si>
-    <t>grey</t>
-  </si>
-  <si>
     <t>spot-low</t>
   </si>
   <si>
@@ -462,9 +444,6 @@
     <t>Results</t>
   </si>
   <si>
-    <t>PtX-BOA</t>
-  </si>
-  <si>
     <t>Germany-import</t>
   </si>
   <si>
@@ -540,7 +519,46 @@
     <t>bio-e-methanol</t>
   </si>
   <si>
-    <t>grey_carbon_price</t>
+    <t>LCOA China</t>
+  </si>
+  <si>
+    <t>LCOA-site-1</t>
+  </si>
+  <si>
+    <t>LCOA-site-2</t>
+  </si>
+  <si>
+    <t>LCOA-hydro</t>
+  </si>
+  <si>
+    <t>LCOA-PyPSA</t>
+  </si>
+  <si>
+    <t>grey ammonia</t>
+  </si>
+  <si>
+    <t>grey ammonia + carbon price</t>
+  </si>
+  <si>
+    <t>LCOA PtX-BOA</t>
+  </si>
+  <si>
+    <t>LCOM China</t>
+  </si>
+  <si>
+    <t>LCOM-site-3</t>
+  </si>
+  <si>
+    <t>LCOM-PyPSA</t>
+  </si>
+  <si>
+    <t>grey methanol</t>
+  </si>
+  <si>
+    <t>grey methanol + carbon price methanol</t>
+  </si>
+  <si>
+    <t>LCOM PtX-BOA</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T172"/>
+  <dimension ref="A1:T188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1226,13 +1244,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1246,13 +1264,13 @@
         <v>97</v>
       </c>
       <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
       </c>
       <c r="E3" s="19">
         <v>694.97208526798443</v>
@@ -1263,13 +1281,13 @@
         <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="19">
         <v>661.31725643487459</v>
@@ -1280,13 +1298,13 @@
         <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="19">
         <v>644.48984201831945</v>
@@ -1297,13 +1315,13 @@
         <v>97</v>
       </c>
       <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
         <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>99</v>
       </c>
       <c r="E6" s="19">
         <v>614.32941022493117</v>
@@ -1314,13 +1332,13 @@
         <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="19">
         <v>580.67458139182133</v>
@@ -1331,13 +1349,13 @@
         <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="19">
         <v>563.84716697526619</v>
@@ -1348,13 +1366,13 @@
         <v>97</v>
       </c>
       <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
         <v>98</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
       </c>
       <c r="E9" s="19">
         <v>573.81904713936024</v>
@@ -1368,13 +1386,13 @@
         <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="19">
         <v>540.1642183062504</v>
@@ -1385,13 +1403,13 @@
         <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="19">
         <v>523.33680388969526</v>
@@ -1405,10 +1423,10 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E12" s="19">
         <v>970.38071155439695</v>
@@ -1419,10 +1437,10 @@
         <v>97</v>
       </c>
       <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" t="s">
         <v>106</v>
-      </c>
-      <c r="D13" t="s">
-        <v>108</v>
       </c>
       <c r="E13" s="19">
         <v>808.65059296199718</v>
@@ -1433,10 +1451,10 @@
         <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E14" s="19">
         <v>693.12907968171191</v>
@@ -1447,10 +1465,10 @@
         <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E15" s="19">
         <v>606.48794472149802</v>
@@ -1463,10 +1481,10 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="19">
         <v>854.64259543671108</v>
@@ -1479,10 +1497,10 @@
         <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E17" s="19">
         <v>712.20216286392611</v>
@@ -1495,10 +1513,10 @@
         <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E18" s="19">
         <v>610.45899674050804</v>
@@ -1511,10 +1529,10 @@
         <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E19" s="19">
         <v>534.15162214794464</v>
@@ -1525,7 +1543,7 @@
         <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="E20" s="19">
         <v>335.48017627422814</v>
@@ -1536,13 +1554,13 @@
         <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
         <v>113</v>
-      </c>
-      <c r="D21" t="s">
-        <v>117</v>
       </c>
       <c r="E21" s="19">
         <v>614.23772947260238</v>
@@ -1559,13 +1577,13 @@
         <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E22" s="19">
         <v>545.84875272473141</v>
@@ -1582,13 +1600,13 @@
         <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E23" s="19">
         <v>631.60314289836856</v>
@@ -1605,13 +1623,13 @@
         <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>118</v>
       </c>
       <c r="E24" s="19">
         <v>581.43915616834465</v>
@@ -1628,13 +1646,13 @@
         <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E25" s="19">
         <v>660.20468327600759</v>
@@ -1651,13 +1669,13 @@
         <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E26" s="19">
         <v>600.27894788840672</v>
@@ -1674,13 +1692,13 @@
         <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E27" s="19">
         <v>680.17746721981393</v>
@@ -1697,13 +1715,13 @@
         <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E28" s="19">
         <v>621.36469690301396</v>
@@ -1720,13 +1738,13 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E29" s="19">
         <v>420</v>
@@ -1737,13 +1755,13 @@
         <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E30" s="19">
         <v>570</v>
@@ -1756,13 +1774,13 @@
         <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E31" s="19">
         <v>455</v>
@@ -1773,13 +1791,13 @@
         <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E32" s="19">
         <v>518</v>
@@ -1790,13 +1808,13 @@
         <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E33" s="19">
         <v>589</v>
@@ -1807,13 +1825,13 @@
         <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E34" s="19">
         <v>415</v>
@@ -1824,13 +1842,13 @@
         <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E35" s="19">
         <v>430</v>
@@ -1841,13 +1859,13 @@
         <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E36" s="19">
         <v>335</v>
@@ -1858,13 +1876,13 @@
         <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E37" s="19">
         <v>518</v>
@@ -1875,13 +1893,13 @@
         <v>97</v>
       </c>
       <c r="B38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
         <v>123</v>
       </c>
-      <c r="C38" t="s">
-        <v>129</v>
-      </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E38" s="19">
         <v>350</v>
@@ -1892,13 +1910,13 @@
         <v>97</v>
       </c>
       <c r="B39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" t="s">
         <v>123</v>
       </c>
-      <c r="C39" t="s">
-        <v>129</v>
-      </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E39" s="19">
         <v>407</v>
@@ -1909,13 +1927,13 @@
         <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E40" s="19">
         <f>E29+55</f>
@@ -1927,13 +1945,13 @@
         <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" ref="E41:E50" si="0">E30+55</f>
@@ -1945,13 +1963,13 @@
         <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" si="0"/>
@@ -1963,13 +1981,13 @@
         <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" si="0"/>
@@ -1981,13 +1999,13 @@
         <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E44" s="19">
         <f t="shared" si="0"/>
@@ -1999,13 +2017,13 @@
         <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" si="0"/>
@@ -2017,13 +2035,13 @@
         <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" si="0"/>
@@ -2035,13 +2053,13 @@
         <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" si="0"/>
@@ -2053,13 +2071,13 @@
         <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" si="0"/>
@@ -2071,13 +2089,13 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" si="0"/>
@@ -2089,13 +2107,13 @@
         <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E50" s="19">
         <f t="shared" si="0"/>
@@ -2107,13 +2125,13 @@
         <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E51" s="11">
         <v>512</v>
@@ -2124,13 +2142,13 @@
         <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E52" s="11">
         <v>536</v>
@@ -2141,13 +2159,13 @@
         <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E53" s="11">
         <v>631</v>
@@ -2158,13 +2176,13 @@
         <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E54" s="11">
         <v>647</v>
@@ -2175,13 +2193,13 @@
         <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E55" s="11">
         <v>659</v>
@@ -2192,13 +2210,13 @@
         <v>97</v>
       </c>
       <c r="B56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" t="s">
         <v>139</v>
-      </c>
-      <c r="C56" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" t="s">
-        <v>146</v>
       </c>
       <c r="E56" s="11">
         <v>666</v>
@@ -2209,13 +2227,13 @@
         <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" t="s">
         <v>140</v>
-      </c>
-      <c r="D57" t="s">
-        <v>147</v>
       </c>
       <c r="E57" s="11">
         <v>671</v>
@@ -2226,13 +2244,13 @@
         <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E58" s="11">
         <v>713</v>
@@ -2243,13 +2261,13 @@
         <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E59" s="11">
         <v>717</v>
@@ -2260,13 +2278,13 @@
         <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E60" s="11">
         <v>744</v>
@@ -2277,13 +2295,13 @@
         <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E61" s="11">
         <v>749</v>
@@ -2294,13 +2312,13 @@
         <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E62" s="11">
         <v>765</v>
@@ -2311,13 +2329,13 @@
         <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E63" s="11">
         <v>781</v>
@@ -2328,13 +2346,13 @@
         <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E64" s="11">
         <v>803</v>
@@ -2345,13 +2363,13 @@
         <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E65" s="11">
         <v>809</v>
@@ -2359,7 +2377,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -2368,16 +2386,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" t="s">
         <v>102</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
         <v>98</v>
-      </c>
-      <c r="C69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" t="s">
-        <v>99</v>
       </c>
       <c r="E69" s="19">
         <v>906.84610855924723</v>
@@ -2385,16 +2403,16 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" t="s">
         <v>102</v>
       </c>
-      <c r="B70" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" t="s">
-        <v>103</v>
-      </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70" s="19">
         <v>832.07614929066608</v>
@@ -2402,16 +2420,16 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" t="s">
         <v>102</v>
       </c>
-      <c r="B71" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" t="s">
-        <v>103</v>
-      </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71" s="19">
         <v>794.69116965637556</v>
@@ -2419,16 +2437,16 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
         <v>98</v>
-      </c>
-      <c r="C72" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" t="s">
-        <v>99</v>
       </c>
       <c r="E72" s="19">
         <v>808.93701250879712</v>
@@ -2436,16 +2454,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E73" s="19">
         <v>734.16705324021564</v>
@@ -2453,16 +2471,16 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E74" s="19">
         <v>696.78207360592523</v>
@@ -2470,16 +2488,16 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" t="s">
         <v>98</v>
-      </c>
-      <c r="C75" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" t="s">
-        <v>99</v>
       </c>
       <c r="E75" s="19">
         <v>759.56520080056305</v>
@@ -2487,16 +2505,16 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E76" s="19">
         <v>684.7952415319819</v>
@@ -2504,16 +2522,16 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E77" s="19">
         <v>647.41026189769127</v>
@@ -2521,13 +2539,13 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E78" s="19">
         <v>982.25342459288049</v>
@@ -2536,13 +2554,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E79" s="19">
         <v>826.25356618881335</v>
@@ -2551,13 +2569,13 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E80" s="19">
         <v>714.82509590019424</v>
@@ -2566,13 +2584,13 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E81" s="19">
         <v>631.25374318373053</v>
@@ -2581,13 +2599,13 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E82" s="19">
         <v>795.05359450800051</v>
@@ -2596,13 +2614,13 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E83" s="19">
         <v>645.2937304400964</v>
@@ -2610,13 +2628,13 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E84" s="19">
         <v>545.45382106149373</v>
@@ -2624,13 +2642,13 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E85" s="19">
         <v>864.87320569519409</v>
@@ -2639,13 +2657,13 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E86" s="19">
         <v>747.92764404852085</v>
@@ -2654,13 +2672,13 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E87" s="19">
         <v>660.2184728135154</v>
@@ -2668,16 +2686,16 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" t="s">
         <v>113</v>
-      </c>
-      <c r="D88" t="s">
-        <v>117</v>
       </c>
       <c r="E88" s="19">
         <v>707.27705922558869</v>
@@ -2692,16 +2710,16 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E89" s="19">
         <v>630.67136908163445</v>
@@ -2716,16 +2734,16 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E90" s="19">
         <v>726.10530587542326</v>
@@ -2739,16 +2757,16 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" t="s">
         <v>114</v>
-      </c>
-      <c r="D91" t="s">
-        <v>118</v>
       </c>
       <c r="E91" s="19">
         <v>669.20649013015475</v>
@@ -2762,16 +2780,16 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E92" s="19">
         <v>758.11145792571676</v>
@@ -2785,16 +2803,16 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E93" s="19">
         <v>690.78544333933314</v>
@@ -2808,16 +2826,16 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E94" s="19">
         <v>781.0277151684719</v>
@@ -2831,16 +2849,16 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D95" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E95" s="19">
         <v>715.32941175006147</v>
@@ -2854,16 +2872,16 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E96" s="19">
         <v>280</v>
@@ -2871,16 +2889,16 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C97" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E97" s="19">
         <v>394</v>
@@ -2888,16 +2906,16 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E98" s="19">
         <v>400</v>
@@ -2905,16 +2923,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E99" s="19">
         <v>294</v>
@@ -2922,16 +2940,16 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" t="s">
         <v>123</v>
       </c>
-      <c r="C100" t="s">
-        <v>129</v>
-      </c>
       <c r="D100" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E100" s="19">
         <v>320</v>
@@ -2939,16 +2957,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" t="s">
         <v>123</v>
       </c>
-      <c r="C101" t="s">
-        <v>129</v>
-      </c>
       <c r="D101" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E101" s="19">
         <v>348</v>
@@ -2956,16 +2974,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D102" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E102" s="19">
         <v>330</v>
@@ -2973,16 +2991,16 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D103" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E103" s="19">
         <v>360</v>
@@ -2990,16 +3008,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C104" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D104" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E104" s="19">
         <f>E96+62</f>
@@ -3008,16 +3026,16 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C105" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D105" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E105" s="19">
         <f t="shared" ref="E105:E111" si="1">E97+62</f>
@@ -3026,16 +3044,16 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C106" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E106" s="19">
         <f t="shared" si="1"/>
@@ -3044,16 +3062,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C107" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E107" s="19">
         <f t="shared" si="1"/>
@@ -3062,16 +3080,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" t="s">
         <v>123</v>
       </c>
-      <c r="C108" t="s">
-        <v>129</v>
-      </c>
       <c r="D108" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E108" s="19">
         <f t="shared" si="1"/>
@@ -3080,16 +3098,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" t="s">
         <v>123</v>
       </c>
-      <c r="C109" t="s">
-        <v>129</v>
-      </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E109" s="19">
         <f t="shared" si="1"/>
@@ -3098,16 +3116,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C110" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D110" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E110" s="19">
         <f t="shared" si="1"/>
@@ -3116,16 +3134,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D111" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E111" s="19">
         <f t="shared" si="1"/>
@@ -3134,1253 +3152,1541 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C112" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>141</v>
-      </c>
-      <c r="E112">
-        <v>684</v>
+        <v>118</v>
+      </c>
+      <c r="E112" s="19">
+        <f>E96+62</f>
+        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D113" t="s">
-        <v>142</v>
-      </c>
-      <c r="E113">
-        <v>693</v>
+        <v>119</v>
+      </c>
+      <c r="E113" s="19">
+        <f t="shared" ref="E113:E127" si="2">E97+62</f>
+        <v>456</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C114" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D114" t="s">
-        <v>143</v>
-      </c>
-      <c r="E114">
-        <v>794</v>
+        <v>126</v>
+      </c>
+      <c r="E114" s="19">
+        <f t="shared" si="2"/>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C115" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
-      </c>
-      <c r="E115">
-        <v>800</v>
+        <v>126</v>
+      </c>
+      <c r="E115" s="19">
+        <f t="shared" si="2"/>
+        <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C116" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D116" t="s">
-        <v>145</v>
-      </c>
-      <c r="E116" s="11">
-        <v>838</v>
+        <v>118</v>
+      </c>
+      <c r="E116" s="19">
+        <f t="shared" si="2"/>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C117" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D117" t="s">
-        <v>146</v>
-      </c>
-      <c r="E117" s="11">
-        <v>842</v>
+        <v>119</v>
+      </c>
+      <c r="E117" s="19">
+        <f t="shared" si="2"/>
+        <v>410</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D118" t="s">
-        <v>147</v>
-      </c>
-      <c r="E118" s="11">
-        <v>855</v>
+        <v>118</v>
+      </c>
+      <c r="E118" s="19">
+        <f t="shared" si="2"/>
+        <v>392</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D119" t="s">
-        <v>148</v>
-      </c>
-      <c r="E119">
-        <v>875</v>
+        <v>119</v>
+      </c>
+      <c r="E119" s="19">
+        <f t="shared" si="2"/>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D120" t="s">
-        <v>149</v>
-      </c>
-      <c r="E120" s="11">
-        <v>914</v>
+        <v>118</v>
+      </c>
+      <c r="E120" s="19">
+        <f t="shared" si="2"/>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D121" t="s">
-        <v>150</v>
-      </c>
-      <c r="E121">
-        <v>920</v>
+        <v>119</v>
+      </c>
+      <c r="E121" s="19">
+        <f t="shared" si="2"/>
+        <v>518</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
-      </c>
-      <c r="E122">
-        <v>924</v>
+        <v>126</v>
+      </c>
+      <c r="E122" s="19">
+        <f t="shared" si="2"/>
+        <v>524</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B123" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C123" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D123" t="s">
-        <v>152</v>
-      </c>
-      <c r="E123">
-        <v>971</v>
+        <v>126</v>
+      </c>
+      <c r="E123" s="19">
+        <f t="shared" si="2"/>
+        <v>418</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B124" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D124" t="s">
-        <v>153</v>
-      </c>
-      <c r="E124">
-        <v>993</v>
+        <v>118</v>
+      </c>
+      <c r="E124" s="19">
+        <f t="shared" si="2"/>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C125" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D125" t="s">
-        <v>154</v>
-      </c>
-      <c r="E125">
-        <v>993</v>
+        <v>119</v>
+      </c>
+      <c r="E125" s="19">
+        <f t="shared" si="2"/>
+        <v>472</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B126" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C126" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D126" t="s">
-        <v>158</v>
-      </c>
-      <c r="E126">
-        <v>353.23706445869954</v>
+        <v>118</v>
+      </c>
+      <c r="E126" s="19">
+        <f t="shared" si="2"/>
+        <v>454</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B127" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C127" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D127" t="s">
-        <v>159</v>
-      </c>
-      <c r="E127">
-        <v>393.36479498120781</v>
+        <v>119</v>
+      </c>
+      <c r="E127" s="19">
+        <f t="shared" si="2"/>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>101</v>
+      </c>
+      <c r="B129" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" t="s">
+        <v>135</v>
+      </c>
+      <c r="E129">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>101</v>
+      </c>
+      <c r="B130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C130" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130" t="s">
+        <v>136</v>
+      </c>
+      <c r="E130">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B131" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" t="s">
+        <v>137</v>
+      </c>
+      <c r="E131">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>101</v>
+      </c>
+      <c r="B132" t="s">
+        <v>171</v>
+      </c>
+      <c r="C132" t="s">
+        <v>133</v>
+      </c>
+      <c r="D132" t="s">
+        <v>138</v>
+      </c>
+      <c r="E132" s="11">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>101</v>
+      </c>
+      <c r="B133" t="s">
+        <v>171</v>
+      </c>
+      <c r="C133" t="s">
+        <v>133</v>
+      </c>
+      <c r="D133" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="11">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>101</v>
+      </c>
+      <c r="B134" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" t="s">
+        <v>133</v>
+      </c>
+      <c r="D134" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" s="11">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>101</v>
+      </c>
+      <c r="B135" t="s">
+        <v>171</v>
+      </c>
+      <c r="C135" t="s">
+        <v>133</v>
+      </c>
+      <c r="D135" t="s">
+        <v>141</v>
+      </c>
+      <c r="E135">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>101</v>
+      </c>
+      <c r="B136" t="s">
+        <v>171</v>
+      </c>
+      <c r="C136" t="s">
+        <v>133</v>
+      </c>
+      <c r="D136" t="s">
+        <v>142</v>
+      </c>
+      <c r="E136" s="11">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>101</v>
+      </c>
+      <c r="B137" t="s">
+        <v>171</v>
+      </c>
+      <c r="C137" t="s">
+        <v>133</v>
+      </c>
+      <c r="D137" t="s">
+        <v>143</v>
+      </c>
+      <c r="E137">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>101</v>
+      </c>
+      <c r="B138" t="s">
+        <v>171</v>
+      </c>
+      <c r="C138" t="s">
+        <v>133</v>
+      </c>
+      <c r="D138" t="s">
+        <v>144</v>
+      </c>
+      <c r="E138">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>101</v>
+      </c>
+      <c r="B139" t="s">
+        <v>171</v>
+      </c>
+      <c r="C139" t="s">
+        <v>133</v>
+      </c>
+      <c r="D139" t="s">
+        <v>145</v>
+      </c>
+      <c r="E139">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>101</v>
+      </c>
+      <c r="B140" t="s">
+        <v>171</v>
+      </c>
+      <c r="C140" t="s">
+        <v>133</v>
+      </c>
+      <c r="D140" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>101</v>
+      </c>
+      <c r="B141" t="s">
+        <v>171</v>
+      </c>
+      <c r="C141" t="s">
+        <v>133</v>
+      </c>
+      <c r="D141" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>101</v>
+      </c>
+      <c r="B142" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" t="s">
+        <v>150</v>
+      </c>
+      <c r="D142" t="s">
+        <v>151</v>
+      </c>
+      <c r="E142">
+        <v>353.23706445869954</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>101</v>
+      </c>
+      <c r="B143" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" t="s">
+        <v>150</v>
+      </c>
+      <c r="D143" t="s">
+        <v>152</v>
+      </c>
+      <c r="E143">
+        <v>393.36479498120781</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>101</v>
+      </c>
+      <c r="B144" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" t="s">
+        <v>150</v>
+      </c>
+      <c r="D144" t="s">
+        <v>153</v>
+      </c>
+      <c r="E144">
+        <v>436.60101167095263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" t="s">
+        <v>101</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" t="s">
+        <v>150</v>
+      </c>
+      <c r="D145" t="s">
+        <v>154</v>
+      </c>
+      <c r="E145">
+        <v>479.83722836069745</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" t="s">
+        <v>101</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146" t="s">
+        <v>150</v>
+      </c>
+      <c r="D146" t="s">
+        <v>155</v>
+      </c>
+      <c r="E146">
+        <v>523.07344505044227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" t="s">
+        <v>101</v>
+      </c>
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" t="s">
+        <v>150</v>
+      </c>
+      <c r="D147" t="s">
+        <v>156</v>
+      </c>
+      <c r="E147">
+        <v>565.17999999999995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" t="s">
+        <v>101</v>
+      </c>
+      <c r="B148" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" t="s">
+        <v>104</v>
+      </c>
+      <c r="D148" t="s">
+        <v>151</v>
+      </c>
+      <c r="E148" s="16">
+        <v>437.72341173471176</v>
+      </c>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="16"/>
+      <c r="L148" s="16"/>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" t="s">
+        <v>101</v>
+      </c>
+      <c r="B149" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" t="s">
+        <v>104</v>
+      </c>
+      <c r="D149" t="s">
+        <v>152</v>
+      </c>
+      <c r="E149" s="16">
+        <v>462.90494323365459</v>
+      </c>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="16"/>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" t="s">
+        <v>101</v>
+      </c>
+      <c r="B150" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" t="s">
+        <v>104</v>
+      </c>
+      <c r="D150" t="s">
+        <v>153</v>
+      </c>
+      <c r="E150" s="16">
+        <v>488.08647473259759</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" t="s">
+        <v>101</v>
+      </c>
+      <c r="B151" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" t="s">
+        <v>104</v>
+      </c>
+      <c r="D151" t="s">
+        <v>154</v>
+      </c>
+      <c r="E151" s="16">
+        <v>513.26800623154054</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" t="s">
+        <v>101</v>
+      </c>
+      <c r="B152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" t="s">
+        <v>104</v>
+      </c>
+      <c r="D152" t="s">
+        <v>155</v>
+      </c>
+      <c r="E152" s="16">
+        <v>538.44953773048348</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" t="s">
+        <v>104</v>
+      </c>
+      <c r="D153" t="s">
+        <v>156</v>
+      </c>
+      <c r="E153" s="16">
+        <v>563.63106922942632</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" t="s">
+        <v>103</v>
+      </c>
+      <c r="D154" t="s">
+        <v>151</v>
+      </c>
+      <c r="E154" s="16">
+        <v>454.12540635609167</v>
+      </c>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="16"/>
+      <c r="L154" s="16"/>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" t="s">
+        <v>103</v>
+      </c>
+      <c r="D155" t="s">
+        <v>152</v>
+      </c>
+      <c r="E155" s="16">
+        <v>480.25051851152028</v>
+      </c>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="16"/>
+      <c r="L155" s="16"/>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" t="s">
+        <v>101</v>
+      </c>
+      <c r="B156" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" t="s">
+        <v>103</v>
+      </c>
+      <c r="D156" t="s">
+        <v>153</v>
+      </c>
+      <c r="E156" s="16">
+        <v>506.37563066694884</v>
+      </c>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="16"/>
+      <c r="L156" s="16"/>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" t="s">
+        <v>101</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>103</v>
+      </c>
+      <c r="D157" t="s">
+        <v>154</v>
+      </c>
+      <c r="E157" s="16">
+        <v>532.50074282237745</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" t="s">
+        <v>101</v>
+      </c>
+      <c r="B158" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>103</v>
+      </c>
+      <c r="D158" t="s">
+        <v>155</v>
+      </c>
+      <c r="E158" s="16">
+        <v>558.62585497780606</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" t="s">
+        <v>101</v>
+      </c>
+      <c r="B159" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" t="s">
+        <v>103</v>
+      </c>
+      <c r="D159" t="s">
+        <v>156</v>
+      </c>
+      <c r="E159" s="16">
+        <v>584.75096713323455</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" t="s">
+        <v>101</v>
+      </c>
+      <c r="B160" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" t="s">
         <v>102</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D160" t="s">
+        <v>151</v>
+      </c>
+      <c r="E160" s="16">
+        <v>486.77632877601394</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
+      <c r="A161" t="s">
+        <v>101</v>
+      </c>
+      <c r="B161" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" t="s">
+        <v>102</v>
+      </c>
+      <c r="D161" t="s">
+        <v>152</v>
+      </c>
+      <c r="E161" s="16">
+        <v>514.77979655361139</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
+      <c r="A162" t="s">
+        <v>101</v>
+      </c>
+      <c r="B162" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" t="s">
+        <v>102</v>
+      </c>
+      <c r="D162" t="s">
+        <v>153</v>
+      </c>
+      <c r="E162" s="16">
+        <v>542.78326433120878</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
+      <c r="A163" t="s">
+        <v>101</v>
+      </c>
+      <c r="B163" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" t="s">
+        <v>102</v>
+      </c>
+      <c r="D163" t="s">
+        <v>154</v>
+      </c>
+      <c r="E163" s="16">
+        <v>570.78673210880606</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19">
+      <c r="A164" t="s">
+        <v>101</v>
+      </c>
+      <c r="B164" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" t="s">
+        <v>102</v>
+      </c>
+      <c r="D164" t="s">
+        <v>155</v>
+      </c>
+      <c r="E164" s="16">
+        <v>598.79019988640357</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19">
+      <c r="A165" t="s">
+        <v>101</v>
+      </c>
+      <c r="B165" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" t="s">
+        <v>102</v>
+      </c>
+      <c r="D165" t="s">
         <v>156</v>
       </c>
-      <c r="C128" t="s">
-        <v>157</v>
-      </c>
-      <c r="D128" t="s">
-        <v>160</v>
-      </c>
-      <c r="E128">
-        <v>436.60101167095263</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" t="s">
-        <v>102</v>
-      </c>
-      <c r="B129" t="s">
-        <v>156</v>
-      </c>
-      <c r="C129" t="s">
-        <v>157</v>
-      </c>
-      <c r="D129" t="s">
-        <v>161</v>
-      </c>
-      <c r="E129">
-        <v>479.83722836069745</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" t="s">
-        <v>102</v>
-      </c>
-      <c r="B130" t="s">
-        <v>156</v>
-      </c>
-      <c r="C130" t="s">
-        <v>157</v>
-      </c>
-      <c r="D130" t="s">
-        <v>162</v>
-      </c>
-      <c r="E130">
+      <c r="E165" s="16">
+        <v>626.79366766400096</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" t="s">
+        <v>4</v>
+      </c>
+      <c r="L169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" t="s">
+        <v>9</v>
+      </c>
+      <c r="H170" t="s">
+        <v>10</v>
+      </c>
+      <c r="I170" t="s">
+        <v>11</v>
+      </c>
+      <c r="J170" t="s">
+        <v>12</v>
+      </c>
+      <c r="K170" t="s">
+        <v>13</v>
+      </c>
+      <c r="L170" t="s">
+        <v>7</v>
+      </c>
+      <c r="M170" t="s">
+        <v>14</v>
+      </c>
+      <c r="N170" t="s">
+        <v>15</v>
+      </c>
+      <c r="O170" t="s">
+        <v>16</v>
+      </c>
+      <c r="P170" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>18</v>
+      </c>
+      <c r="R170" t="s">
+        <v>12</v>
+      </c>
+      <c r="S170" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
+      <c r="A171" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171">
+        <v>41.640099999999997</v>
+      </c>
+      <c r="D171">
+        <v>109.8633</v>
+      </c>
+      <c r="E171" s="11">
+        <v>580.04324109866684</v>
+      </c>
+      <c r="F171">
+        <v>580.04324109866684</v>
+      </c>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11">
+        <v>512</v>
+      </c>
+      <c r="K171">
+        <v>420</v>
+      </c>
+      <c r="L171" s="11">
+        <v>538.16792646631541</v>
+      </c>
+      <c r="M171" s="11">
+        <v>538.16792646631541</v>
+      </c>
+      <c r="O171" s="11"/>
+      <c r="P171" s="17">
+        <v>353.23706445869948</v>
+      </c>
+      <c r="Q171" s="17">
+        <v>454.12540635609167</v>
+      </c>
+      <c r="R171">
+        <v>684</v>
+      </c>
+      <c r="S171">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
+      <c r="A172" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172">
+        <v>42.785200000000003</v>
+      </c>
+      <c r="D172">
+        <v>118.7646</v>
+      </c>
+      <c r="E172" s="11">
+        <v>606.52114953335661</v>
+      </c>
+      <c r="F172">
+        <v>606.52114953335661</v>
+      </c>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11">
+        <v>536</v>
+      </c>
+      <c r="K172">
+        <v>570</v>
+      </c>
+      <c r="L172" s="11">
+        <v>563.21212426905822</v>
+      </c>
+      <c r="M172" s="11">
+        <v>563.21212426905822</v>
+      </c>
+      <c r="O172" s="11"/>
+      <c r="P172" s="17">
+        <v>393.36479498120781</v>
+      </c>
+      <c r="Q172" s="17">
+        <v>480.25051851152028</v>
+      </c>
+      <c r="R172">
+        <v>693</v>
+      </c>
+      <c r="S172">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="A173" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173">
+        <v>41.680700000000002</v>
+      </c>
+      <c r="D173">
+        <v>120.7899</v>
+      </c>
+      <c r="E173" s="11">
+        <v>630.24181558220721</v>
+      </c>
+      <c r="F173">
+        <v>630.24181558220721</v>
+      </c>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11">
+        <v>631</v>
+      </c>
+      <c r="K173">
+        <v>455</v>
+      </c>
+      <c r="L173" s="11">
+        <v>583.83970266656161</v>
+      </c>
+      <c r="M173" s="11">
+        <v>583.83970266656161</v>
+      </c>
+      <c r="O173" s="11"/>
+      <c r="P173" s="17">
+        <v>436.60101167095257</v>
+      </c>
+      <c r="Q173" s="17">
+        <v>506.37563066694878</v>
+      </c>
+      <c r="R173">
+        <v>794</v>
+      </c>
+      <c r="S173">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
+      <c r="A174" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174">
+        <v>45.3733</v>
+      </c>
+      <c r="D174">
+        <v>122.9395</v>
+      </c>
+      <c r="E174" s="11">
+        <v>650.77108206141395</v>
+      </c>
+      <c r="F174">
+        <v>650.77108206141395</v>
+      </c>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11">
+        <v>647</v>
+      </c>
+      <c r="K174">
+        <v>518</v>
+      </c>
+      <c r="L174" s="11">
+        <v>601.9462694995002</v>
+      </c>
+      <c r="M174" s="11">
+        <v>601.9462694995002</v>
+      </c>
+      <c r="O174" s="11"/>
+      <c r="P174" s="17">
+        <v>479.83722836069751</v>
+      </c>
+      <c r="Q174" s="17">
+        <v>532.50074282237745</v>
+      </c>
+      <c r="R174">
+        <v>800</v>
+      </c>
+      <c r="S174">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" t="s">
+        <v>27</v>
+      </c>
+      <c r="E175" s="11">
+        <v>693.12907968171191</v>
+      </c>
+      <c r="G175" s="11">
+        <v>693.12907968171191</v>
+      </c>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11">
+        <v>659</v>
+      </c>
+      <c r="K175">
+        <v>589</v>
+      </c>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="17">
         <v>523.07344505044227</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" t="s">
-        <v>102</v>
-      </c>
-      <c r="B131" t="s">
-        <v>156</v>
-      </c>
-      <c r="C131" t="s">
-        <v>157</v>
-      </c>
-      <c r="D131" t="s">
-        <v>163</v>
-      </c>
-      <c r="E131">
-        <v>565.17999999999995</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" t="s">
-        <v>102</v>
-      </c>
-      <c r="B132" t="s">
-        <v>164</v>
-      </c>
-      <c r="C132" t="s">
-        <v>105</v>
-      </c>
-      <c r="D132" t="s">
-        <v>158</v>
-      </c>
-      <c r="E132" s="16">
-        <v>437.72341173471176</v>
-      </c>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="16"/>
-      <c r="L132" s="16"/>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" t="s">
-        <v>102</v>
-      </c>
-      <c r="B133" t="s">
-        <v>164</v>
-      </c>
-      <c r="C133" t="s">
-        <v>105</v>
-      </c>
-      <c r="D133" t="s">
-        <v>159</v>
-      </c>
-      <c r="E133" s="16">
-        <v>462.90494323365459</v>
-      </c>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
-      <c r="J133" s="16"/>
-    </row>
-    <row r="134" spans="1:12">
-      <c r="A134" t="s">
-        <v>102</v>
-      </c>
-      <c r="B134" t="s">
-        <v>164</v>
-      </c>
-      <c r="C134" t="s">
-        <v>105</v>
-      </c>
-      <c r="D134" t="s">
-        <v>160</v>
-      </c>
-      <c r="E134" s="16">
-        <v>488.08647473259759</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
-      <c r="A135" t="s">
-        <v>102</v>
-      </c>
-      <c r="B135" t="s">
-        <v>164</v>
-      </c>
-      <c r="C135" t="s">
-        <v>105</v>
-      </c>
-      <c r="D135" t="s">
-        <v>161</v>
-      </c>
-      <c r="E135" s="16">
-        <v>513.26800623154054</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
-      <c r="A136" t="s">
-        <v>102</v>
-      </c>
-      <c r="B136" t="s">
-        <v>164</v>
-      </c>
-      <c r="C136" t="s">
-        <v>105</v>
-      </c>
-      <c r="D136" t="s">
-        <v>162</v>
-      </c>
-      <c r="E136" s="16">
-        <v>538.44953773048348</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" t="s">
-        <v>102</v>
-      </c>
-      <c r="B137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C137" t="s">
-        <v>105</v>
-      </c>
-      <c r="D137" t="s">
-        <v>163</v>
-      </c>
-      <c r="E137" s="16">
-        <v>563.63106922942632</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" t="s">
-        <v>102</v>
-      </c>
-      <c r="B138" t="s">
-        <v>164</v>
-      </c>
-      <c r="C138" t="s">
-        <v>104</v>
-      </c>
-      <c r="D138" t="s">
-        <v>158</v>
-      </c>
-      <c r="E138" s="16">
-        <v>454.12540635609167</v>
-      </c>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="16"/>
-      <c r="J138" s="16"/>
-      <c r="K138" s="16"/>
-      <c r="L138" s="16"/>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" t="s">
-        <v>102</v>
-      </c>
-      <c r="B139" t="s">
-        <v>164</v>
-      </c>
-      <c r="C139" t="s">
-        <v>104</v>
-      </c>
-      <c r="D139" t="s">
-        <v>159</v>
-      </c>
-      <c r="E139" s="16">
-        <v>480.25051851152028</v>
-      </c>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="16"/>
-      <c r="J139" s="16"/>
-      <c r="K139" s="16"/>
-      <c r="L139" s="16"/>
-    </row>
-    <row r="140" spans="1:12">
-      <c r="A140" t="s">
-        <v>102</v>
-      </c>
-      <c r="B140" t="s">
-        <v>164</v>
-      </c>
-      <c r="C140" t="s">
-        <v>104</v>
-      </c>
-      <c r="D140" t="s">
-        <v>160</v>
-      </c>
-      <c r="E140" s="16">
-        <v>506.37563066694884</v>
-      </c>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="16"/>
-      <c r="J140" s="16"/>
-      <c r="K140" s="16"/>
-      <c r="L140" s="16"/>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" t="s">
-        <v>102</v>
-      </c>
-      <c r="B141" t="s">
-        <v>164</v>
-      </c>
-      <c r="C141" t="s">
-        <v>104</v>
-      </c>
-      <c r="D141" t="s">
-        <v>161</v>
-      </c>
-      <c r="E141" s="16">
-        <v>532.50074282237745</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" t="s">
-        <v>102</v>
-      </c>
-      <c r="B142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C142" t="s">
-        <v>104</v>
-      </c>
-      <c r="D142" t="s">
-        <v>162</v>
-      </c>
-      <c r="E142" s="16">
+      <c r="Q175" s="17">
         <v>558.62585497780606</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
-      <c r="A143" t="s">
-        <v>102</v>
-      </c>
-      <c r="B143" t="s">
-        <v>164</v>
-      </c>
-      <c r="C143" t="s">
-        <v>104</v>
-      </c>
-      <c r="D143" t="s">
-        <v>163</v>
-      </c>
-      <c r="E143" s="16">
+      <c r="R175" s="11">
+        <v>838</v>
+      </c>
+      <c r="S175" s="11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
+      <c r="A176" t="s">
+        <v>25</v>
+      </c>
+      <c r="B176" t="s">
+        <v>26</v>
+      </c>
+      <c r="E176" s="11">
+        <v>610.45899674050804</v>
+      </c>
+      <c r="G176" s="11">
+        <v>610.45899674050804</v>
+      </c>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11">
+        <v>666</v>
+      </c>
+      <c r="K176" s="11">
+        <v>415</v>
+      </c>
+      <c r="L176">
+        <v>647</v>
+      </c>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11">
+        <v>647</v>
+      </c>
+      <c r="P176" s="17">
+        <v>566.30966174018704</v>
+      </c>
+      <c r="Q176" s="17">
         <v>584.75096713323455</v>
       </c>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="A144" t="s">
-        <v>102</v>
-      </c>
-      <c r="B144" t="s">
-        <v>164</v>
-      </c>
-      <c r="C144" t="s">
-        <v>103</v>
-      </c>
-      <c r="D144" t="s">
-        <v>158</v>
-      </c>
-      <c r="E144" s="16">
-        <v>486.77632877601394</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19">
-      <c r="A145" t="s">
-        <v>102</v>
-      </c>
-      <c r="B145" t="s">
-        <v>164</v>
-      </c>
-      <c r="C145" t="s">
-        <v>103</v>
-      </c>
-      <c r="D145" t="s">
-        <v>159</v>
-      </c>
-      <c r="E145" s="16">
+      <c r="R176" s="11">
+        <v>842</v>
+      </c>
+      <c r="S176" s="11">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20">
+      <c r="A177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="11">
+        <v>335.48017627422809</v>
+      </c>
+      <c r="G177" s="11"/>
+      <c r="I177" s="11">
+        <v>335.48017627422809</v>
+      </c>
+      <c r="J177" s="11">
+        <v>671</v>
+      </c>
+      <c r="K177" s="11">
+        <v>430</v>
+      </c>
+      <c r="L177">
+        <v>697</v>
+      </c>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+      <c r="O177">
+        <v>697</v>
+      </c>
+      <c r="P177" s="17"/>
+      <c r="Q177" s="17">
+        <v>458.37650413733672</v>
+      </c>
+      <c r="R177" s="11">
+        <v>855</v>
+      </c>
+      <c r="S177" s="11">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20">
+      <c r="A178" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="11">
+        <v>523</v>
+      </c>
+      <c r="H178">
+        <v>523</v>
+      </c>
+      <c r="J178" s="11">
+        <v>713</v>
+      </c>
+      <c r="K178">
+        <v>350</v>
+      </c>
+      <c r="L178">
+        <v>795</v>
+      </c>
+      <c r="O178" s="11">
+        <v>795</v>
+      </c>
+      <c r="P178" s="17"/>
+      <c r="Q178" s="17">
+        <v>484.7461751850102</v>
+      </c>
+      <c r="R178">
+        <v>875</v>
+      </c>
+      <c r="S178">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20">
+      <c r="A179" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" t="s">
+        <v>27</v>
+      </c>
+      <c r="E179" s="11">
+        <v>564</v>
+      </c>
+      <c r="G179" s="11"/>
+      <c r="H179">
+        <v>564</v>
+      </c>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11">
+        <v>717</v>
+      </c>
+      <c r="K179" s="11">
+        <v>407</v>
+      </c>
+      <c r="L179">
+        <v>748</v>
+      </c>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11">
+        <v>748</v>
+      </c>
+      <c r="O179" s="11"/>
+      <c r="P179" s="17"/>
+      <c r="Q179" s="17">
+        <v>511.11584623268368</v>
+      </c>
+      <c r="R179" s="11">
+        <v>914</v>
+      </c>
+      <c r="S179" s="11"/>
+    </row>
+    <row r="180" spans="1:20">
+      <c r="A180" t="s">
+        <v>25</v>
+      </c>
+      <c r="B180" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" s="11">
+        <v>644</v>
+      </c>
+      <c r="H180" s="11">
+        <v>644</v>
+      </c>
+      <c r="J180" s="11">
+        <v>744</v>
+      </c>
+      <c r="K180" s="11">
+        <v>335</v>
+      </c>
+      <c r="L180">
+        <v>645</v>
+      </c>
+      <c r="N180">
+        <v>645</v>
+      </c>
+      <c r="P180" s="17"/>
+      <c r="Q180" s="17">
+        <v>537.48551728035716</v>
+      </c>
+      <c r="R180">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20">
+      <c r="A181" t="s">
+        <v>31</v>
+      </c>
+      <c r="B181" t="s">
+        <v>32</v>
+      </c>
+      <c r="J181" s="11">
+        <v>749</v>
+      </c>
+      <c r="K181" s="11">
+        <v>518</v>
+      </c>
+      <c r="L181">
+        <v>715</v>
+      </c>
+      <c r="N181">
+        <v>715</v>
+      </c>
+      <c r="P181" s="17"/>
+      <c r="Q181" s="17">
+        <v>563.85518832803075</v>
+      </c>
+      <c r="R181">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20">
+      <c r="J182" s="11">
+        <v>765</v>
+      </c>
+      <c r="P182" s="17"/>
+      <c r="Q182" s="17">
+        <v>590.22485937570423</v>
+      </c>
+      <c r="R182">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
+      <c r="J183" s="11">
+        <v>781</v>
+      </c>
+      <c r="P183" s="17"/>
+      <c r="Q183" s="17">
+        <v>486.77632877601388</v>
+      </c>
+      <c r="R183">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
+      <c r="J184" s="11">
+        <v>803</v>
+      </c>
+      <c r="P184" s="17"/>
+      <c r="Q184" s="17">
         <v>514.77979655361139</v>
       </c>
-    </row>
-    <row r="146" spans="1:19">
-      <c r="A146" t="s">
-        <v>102</v>
-      </c>
-      <c r="B146" t="s">
-        <v>164</v>
-      </c>
-      <c r="C146" t="s">
-        <v>103</v>
-      </c>
-      <c r="D146" t="s">
-        <v>160</v>
-      </c>
-      <c r="E146" s="16">
+      <c r="R184">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
+      <c r="J185" s="11">
+        <v>809</v>
+      </c>
+      <c r="P185" s="17"/>
+      <c r="Q185" s="17">
         <v>542.78326433120878</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
-      <c r="A147" t="s">
-        <v>102</v>
-      </c>
-      <c r="B147" t="s">
-        <v>164</v>
-      </c>
-      <c r="C147" t="s">
-        <v>103</v>
-      </c>
-      <c r="D147" t="s">
-        <v>161</v>
-      </c>
-      <c r="E147" s="16">
+    <row r="186" spans="1:20">
+      <c r="A186" t="s">
+        <v>33</v>
+      </c>
+      <c r="P186" s="17"/>
+      <c r="Q186" s="17">
         <v>570.78673210880606</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
-      <c r="A148" t="s">
-        <v>102</v>
-      </c>
-      <c r="B148" t="s">
-        <v>164</v>
-      </c>
-      <c r="C148" t="s">
-        <v>103</v>
-      </c>
-      <c r="D148" t="s">
-        <v>162</v>
-      </c>
-      <c r="E148" s="16">
+    <row r="187" spans="1:20">
+      <c r="A187" t="s">
+        <v>34</v>
+      </c>
+      <c r="P187" s="17"/>
+      <c r="Q187" s="17">
         <v>598.79019988640357</v>
       </c>
-    </row>
-    <row r="149" spans="1:19">
-      <c r="A149" t="s">
-        <v>102</v>
-      </c>
-      <c r="B149" t="s">
-        <v>164</v>
-      </c>
-      <c r="C149" t="s">
-        <v>103</v>
-      </c>
-      <c r="D149" t="s">
-        <v>163</v>
-      </c>
-      <c r="E149" s="16">
+      <c r="T187" s="16"/>
+    </row>
+    <row r="188" spans="1:20">
+      <c r="P188" s="17"/>
+      <c r="Q188" s="17">
         <v>626.79366766400096</v>
       </c>
-    </row>
-    <row r="153" spans="1:19">
-      <c r="A153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2</v>
-      </c>
-      <c r="D153" t="s">
-        <v>3</v>
-      </c>
-      <c r="E153" t="s">
-        <v>4</v>
-      </c>
-      <c r="L153" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19">
-      <c r="A154" t="s">
-        <v>6</v>
-      </c>
-      <c r="E154" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154" t="s">
-        <v>8</v>
-      </c>
-      <c r="G154" t="s">
-        <v>9</v>
-      </c>
-      <c r="H154" t="s">
-        <v>10</v>
-      </c>
-      <c r="I154" t="s">
-        <v>11</v>
-      </c>
-      <c r="J154" t="s">
-        <v>12</v>
-      </c>
-      <c r="K154" t="s">
-        <v>13</v>
-      </c>
-      <c r="L154" t="s">
-        <v>7</v>
-      </c>
-      <c r="M154" t="s">
-        <v>14</v>
-      </c>
-      <c r="N154" t="s">
-        <v>15</v>
-      </c>
-      <c r="O154" t="s">
-        <v>16</v>
-      </c>
-      <c r="P154" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>18</v>
-      </c>
-      <c r="R154" t="s">
-        <v>12</v>
-      </c>
-      <c r="S154" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19">
-      <c r="A155" t="s">
-        <v>20</v>
-      </c>
-      <c r="B155" t="s">
-        <v>21</v>
-      </c>
-      <c r="C155">
-        <v>41.640099999999997</v>
-      </c>
-      <c r="D155">
-        <v>109.8633</v>
-      </c>
-      <c r="E155" s="11">
-        <v>580.04324109866684</v>
-      </c>
-      <c r="F155">
-        <v>580.04324109866684</v>
-      </c>
-      <c r="H155" s="11"/>
-      <c r="I155" s="11"/>
-      <c r="J155" s="11">
-        <v>512</v>
-      </c>
-      <c r="K155">
-        <v>420</v>
-      </c>
-      <c r="L155" s="11">
-        <v>538.16792646631541</v>
-      </c>
-      <c r="M155" s="11">
-        <v>538.16792646631541</v>
-      </c>
-      <c r="O155" s="11"/>
-      <c r="P155" s="17">
-        <v>353.23706445869948</v>
-      </c>
-      <c r="Q155" s="17">
-        <v>454.12540635609167</v>
-      </c>
-      <c r="R155">
-        <v>684</v>
-      </c>
-      <c r="S155">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19">
-      <c r="A156" t="s">
-        <v>20</v>
-      </c>
-      <c r="B156" t="s">
-        <v>22</v>
-      </c>
-      <c r="C156">
-        <v>42.785200000000003</v>
-      </c>
-      <c r="D156">
-        <v>118.7646</v>
-      </c>
-      <c r="E156" s="11">
-        <v>606.52114953335661</v>
-      </c>
-      <c r="F156">
-        <v>606.52114953335661</v>
-      </c>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11"/>
-      <c r="J156" s="11">
-        <v>536</v>
-      </c>
-      <c r="K156">
-        <v>570</v>
-      </c>
-      <c r="L156" s="11">
-        <v>563.21212426905822</v>
-      </c>
-      <c r="M156" s="11">
-        <v>563.21212426905822</v>
-      </c>
-      <c r="O156" s="11"/>
-      <c r="P156" s="17">
-        <v>393.36479498120781</v>
-      </c>
-      <c r="Q156" s="17">
-        <v>480.25051851152028</v>
-      </c>
-      <c r="R156">
-        <v>693</v>
-      </c>
-      <c r="S156">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19">
-      <c r="A157" t="s">
-        <v>23</v>
-      </c>
-      <c r="B157" t="s">
-        <v>24</v>
-      </c>
-      <c r="C157">
-        <v>41.680700000000002</v>
-      </c>
-      <c r="D157">
-        <v>120.7899</v>
-      </c>
-      <c r="E157" s="11">
-        <v>630.24181558220721</v>
-      </c>
-      <c r="F157">
-        <v>630.24181558220721</v>
-      </c>
-      <c r="H157" s="11"/>
-      <c r="I157" s="11"/>
-      <c r="J157" s="11">
-        <v>631</v>
-      </c>
-      <c r="K157">
-        <v>455</v>
-      </c>
-      <c r="L157" s="11">
-        <v>583.83970266656161</v>
-      </c>
-      <c r="M157" s="11">
-        <v>583.83970266656161</v>
-      </c>
-      <c r="O157" s="11"/>
-      <c r="P157" s="17">
-        <v>436.60101167095257</v>
-      </c>
-      <c r="Q157" s="17">
-        <v>506.37563066694878</v>
-      </c>
-      <c r="R157">
-        <v>794</v>
-      </c>
-      <c r="S157">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19">
-      <c r="A158" t="s">
-        <v>25</v>
-      </c>
-      <c r="B158" t="s">
-        <v>26</v>
-      </c>
-      <c r="C158">
-        <v>45.3733</v>
-      </c>
-      <c r="D158">
-        <v>122.9395</v>
-      </c>
-      <c r="E158" s="11">
-        <v>650.77108206141395</v>
-      </c>
-      <c r="F158">
-        <v>650.77108206141395</v>
-      </c>
-      <c r="H158" s="11"/>
-      <c r="I158" s="11"/>
-      <c r="J158" s="11">
-        <v>647</v>
-      </c>
-      <c r="K158">
-        <v>518</v>
-      </c>
-      <c r="L158" s="11">
-        <v>601.9462694995002</v>
-      </c>
-      <c r="M158" s="11">
-        <v>601.9462694995002</v>
-      </c>
-      <c r="O158" s="11"/>
-      <c r="P158" s="17">
-        <v>479.83722836069751</v>
-      </c>
-      <c r="Q158" s="17">
-        <v>532.50074282237745</v>
-      </c>
-      <c r="R158">
-        <v>800</v>
-      </c>
-      <c r="S158">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19">
-      <c r="A159" t="s">
-        <v>20</v>
-      </c>
-      <c r="B159" t="s">
-        <v>27</v>
-      </c>
-      <c r="E159" s="11">
-        <v>693.12907968171191</v>
-      </c>
-      <c r="G159" s="11">
-        <v>693.12907968171191</v>
-      </c>
-      <c r="H159" s="11"/>
-      <c r="I159" s="11"/>
-      <c r="J159" s="11">
-        <v>659</v>
-      </c>
-      <c r="K159">
-        <v>589</v>
-      </c>
-      <c r="M159" s="11"/>
-      <c r="N159" s="11"/>
-      <c r="O159" s="11"/>
-      <c r="P159" s="17">
-        <v>523.07344505044227</v>
-      </c>
-      <c r="Q159" s="17">
-        <v>558.62585497780606</v>
-      </c>
-      <c r="R159" s="11">
-        <v>838</v>
-      </c>
-      <c r="S159" s="11">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19">
-      <c r="A160" t="s">
-        <v>25</v>
-      </c>
-      <c r="B160" t="s">
-        <v>26</v>
-      </c>
-      <c r="E160" s="11">
-        <v>610.45899674050804</v>
-      </c>
-      <c r="G160" s="11">
-        <v>610.45899674050804</v>
-      </c>
-      <c r="H160" s="11"/>
-      <c r="I160" s="11"/>
-      <c r="J160" s="11">
-        <v>666</v>
-      </c>
-      <c r="K160" s="11">
-        <v>415</v>
-      </c>
-      <c r="L160">
-        <v>647</v>
-      </c>
-      <c r="M160" s="11"/>
-      <c r="N160" s="11"/>
-      <c r="O160" s="11">
-        <v>647</v>
-      </c>
-      <c r="P160" s="17">
-        <v>566.30966174018704</v>
-      </c>
-      <c r="Q160" s="17">
-        <v>584.75096713323455</v>
-      </c>
-      <c r="R160" s="11">
-        <v>842</v>
-      </c>
-      <c r="S160" s="11">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20">
-      <c r="A161" t="s">
-        <v>28</v>
-      </c>
-      <c r="E161" s="11">
-        <v>335.48017627422809</v>
-      </c>
-      <c r="G161" s="11"/>
-      <c r="I161" s="11">
-        <v>335.48017627422809</v>
-      </c>
-      <c r="J161" s="11">
-        <v>671</v>
-      </c>
-      <c r="K161" s="11">
-        <v>430</v>
-      </c>
-      <c r="L161">
-        <v>697</v>
-      </c>
-      <c r="M161" s="11"/>
-      <c r="N161" s="11"/>
-      <c r="O161">
-        <v>697</v>
-      </c>
-      <c r="P161" s="17"/>
-      <c r="Q161" s="17">
-        <v>458.37650413733672</v>
-      </c>
-      <c r="R161" s="11">
-        <v>855</v>
-      </c>
-      <c r="S161" s="11">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20">
-      <c r="A162" t="s">
-        <v>29</v>
-      </c>
-      <c r="E162" s="11">
-        <v>523</v>
-      </c>
-      <c r="H162">
-        <v>523</v>
-      </c>
-      <c r="J162" s="11">
-        <v>713</v>
-      </c>
-      <c r="K162">
-        <v>350</v>
-      </c>
-      <c r="L162">
-        <v>795</v>
-      </c>
-      <c r="O162" s="11">
-        <v>795</v>
-      </c>
-      <c r="P162" s="17"/>
-      <c r="Q162" s="17">
-        <v>484.7461751850102</v>
-      </c>
-      <c r="R162">
-        <v>875</v>
-      </c>
-      <c r="S162">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20">
-      <c r="A163" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" t="s">
-        <v>27</v>
-      </c>
-      <c r="E163" s="11">
-        <v>564</v>
-      </c>
-      <c r="G163" s="11"/>
-      <c r="H163">
-        <v>564</v>
-      </c>
-      <c r="I163" s="11"/>
-      <c r="J163" s="11">
-        <v>717</v>
-      </c>
-      <c r="K163" s="11">
-        <v>407</v>
-      </c>
-      <c r="L163">
-        <v>748</v>
-      </c>
-      <c r="M163" s="11"/>
-      <c r="N163" s="11">
-        <v>748</v>
-      </c>
-      <c r="O163" s="11"/>
-      <c r="P163" s="17"/>
-      <c r="Q163" s="17">
-        <v>511.11584623268368</v>
-      </c>
-      <c r="R163" s="11">
-        <v>914</v>
-      </c>
-      <c r="S163" s="11"/>
-    </row>
-    <row r="164" spans="1:20">
-      <c r="A164" t="s">
-        <v>25</v>
-      </c>
-      <c r="B164" t="s">
-        <v>30</v>
-      </c>
-      <c r="E164" s="11">
-        <v>644</v>
-      </c>
-      <c r="H164" s="11">
-        <v>644</v>
-      </c>
-      <c r="J164" s="11">
-        <v>744</v>
-      </c>
-      <c r="K164" s="11">
-        <v>335</v>
-      </c>
-      <c r="L164">
-        <v>645</v>
-      </c>
-      <c r="N164">
-        <v>645</v>
-      </c>
-      <c r="P164" s="17"/>
-      <c r="Q164" s="17">
-        <v>537.48551728035716</v>
-      </c>
-      <c r="R164">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20">
-      <c r="A165" t="s">
-        <v>31</v>
-      </c>
-      <c r="B165" t="s">
-        <v>32</v>
-      </c>
-      <c r="J165" s="11">
-        <v>749</v>
-      </c>
-      <c r="K165" s="11">
-        <v>518</v>
-      </c>
-      <c r="L165">
-        <v>715</v>
-      </c>
-      <c r="N165">
-        <v>715</v>
-      </c>
-      <c r="P165" s="17"/>
-      <c r="Q165" s="17">
-        <v>563.85518832803075</v>
-      </c>
-      <c r="R165">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20">
-      <c r="J166" s="11">
-        <v>765</v>
-      </c>
-      <c r="P166" s="17"/>
-      <c r="Q166" s="17">
-        <v>590.22485937570423</v>
-      </c>
-      <c r="R166">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="167" spans="1:20">
-      <c r="J167" s="11">
-        <v>781</v>
-      </c>
-      <c r="P167" s="17"/>
-      <c r="Q167" s="17">
-        <v>486.77632877601388</v>
-      </c>
-      <c r="R167">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="168" spans="1:20">
-      <c r="J168" s="11">
-        <v>803</v>
-      </c>
-      <c r="P168" s="17"/>
-      <c r="Q168" s="17">
-        <v>514.77979655361139</v>
-      </c>
-      <c r="R168">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20">
-      <c r="J169" s="11">
-        <v>809</v>
-      </c>
-      <c r="P169" s="17"/>
-      <c r="Q169" s="17">
-        <v>542.78326433120878</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20">
-      <c r="A170" t="s">
-        <v>33</v>
-      </c>
-      <c r="P170" s="17"/>
-      <c r="Q170" s="17">
-        <v>570.78673210880606</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20">
-      <c r="A171" t="s">
-        <v>34</v>
-      </c>
-      <c r="P171" s="17"/>
-      <c r="Q171" s="17">
-        <v>598.79019988640357</v>
-      </c>
-      <c r="T171" s="16"/>
-    </row>
-    <row r="172" spans="1:20">
-      <c r="P172" s="17"/>
-      <c r="Q172" s="17">
-        <v>626.79366766400096</v>
-      </c>
-      <c r="T172" s="16"/>
+      <c r="T188" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5437,7 +5743,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
